--- a/PIB_2000_2020.xlsx
+++ b/PIB_2000_2020.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76456a9bad4eaa05/Desktop/Bootcamp/Project2_visualization_tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E0366B-1B3F-45DA-9641-F74F674EC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{93E0366B-1B3F-45DA-9641-F74F674EC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994BEFAD-CDCC-4154-8817-C1BD8082EA03}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desest-valor" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Limpia" sheetId="3" r:id="rId2"/>
+    <sheet name="Industria_Manuf_PIB_Estado" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'desest-valor'!$A$1:$DD$26</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>Denominación</t>
   </si>
@@ -127,6 +127,156 @@
   </si>
   <si>
     <t>Comercio al por menor</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018R</t>
+  </si>
+  <si>
+    <t>2019R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Baja California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Quintana Roo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Tamaulipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Zacatecas</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -358,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -501,6 +651,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,35 +692,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,164 +1052,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48">
+      <c r="B1" s="64"/>
+      <c r="C1" s="60">
         <v>2000</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="46"/>
-      <c r="H1" s="49">
+      <c r="H1" s="61">
         <v>2001</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="46"/>
-      <c r="M1" s="49">
+      <c r="M1" s="61">
         <v>2002</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
       <c r="Q1" s="46"/>
-      <c r="R1" s="49">
+      <c r="R1" s="61">
         <v>2003</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="62"/>
       <c r="V1" s="46"/>
-      <c r="W1" s="49">
+      <c r="W1" s="61">
         <v>2004</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="50"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="62"/>
       <c r="AA1" s="46"/>
-      <c r="AB1" s="48">
+      <c r="AB1" s="60">
         <v>2005</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="50"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="62"/>
       <c r="AF1" s="46"/>
-      <c r="AG1" s="48">
+      <c r="AG1" s="60">
         <v>2006</v>
       </c>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="50"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="62"/>
       <c r="AK1" s="46"/>
-      <c r="AL1" s="48">
+      <c r="AL1" s="60">
         <v>2007</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="50"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="62"/>
       <c r="AP1" s="46"/>
-      <c r="AQ1" s="48">
+      <c r="AQ1" s="60">
         <v>2008</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="50"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="62"/>
       <c r="AU1" s="46"/>
-      <c r="AV1" s="48">
+      <c r="AV1" s="60">
         <v>2009</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="50"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="62"/>
       <c r="AZ1" s="46"/>
-      <c r="BA1" s="48">
+      <c r="BA1" s="60">
         <v>2010</v>
       </c>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="50"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="62"/>
       <c r="BE1" s="46"/>
-      <c r="BF1" s="48">
+      <c r="BF1" s="60">
         <v>2011</v>
       </c>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="50"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="62"/>
       <c r="BJ1" s="46"/>
-      <c r="BK1" s="48">
+      <c r="BK1" s="60">
         <v>2012</v>
       </c>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="50"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="62"/>
       <c r="BO1" s="46"/>
-      <c r="BP1" s="48">
+      <c r="BP1" s="60">
         <v>2013</v>
       </c>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="50"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="62"/>
       <c r="BT1" s="46"/>
-      <c r="BU1" s="48">
+      <c r="BU1" s="60">
         <v>2014</v>
       </c>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="50"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="62"/>
       <c r="BY1" s="46"/>
-      <c r="BZ1" s="48">
+      <c r="BZ1" s="60">
         <v>2015</v>
       </c>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="50"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="62"/>
       <c r="CD1" s="46"/>
-      <c r="CE1" s="48">
+      <c r="CE1" s="60">
         <v>2016</v>
       </c>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="50"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="62"/>
       <c r="CI1" s="46"/>
-      <c r="CJ1" s="48">
+      <c r="CJ1" s="60">
         <v>2017</v>
       </c>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="50"/>
+      <c r="CK1" s="61"/>
+      <c r="CL1" s="61"/>
+      <c r="CM1" s="62"/>
       <c r="CN1" s="46"/>
-      <c r="CO1" s="48">
+      <c r="CO1" s="60">
         <v>2018</v>
       </c>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="50"/>
+      <c r="CP1" s="61"/>
+      <c r="CQ1" s="61"/>
+      <c r="CR1" s="62"/>
       <c r="CS1" s="46"/>
-      <c r="CT1" s="48">
+      <c r="CT1" s="60">
         <v>2019</v>
       </c>
-      <c r="CU1" s="49"/>
-      <c r="CV1" s="49"/>
-      <c r="CW1" s="50"/>
+      <c r="CU1" s="61"/>
+      <c r="CV1" s="61"/>
+      <c r="CW1" s="62"/>
       <c r="CX1" s="46"/>
-      <c r="CY1" s="48">
+      <c r="CY1" s="60">
         <v>2020</v>
       </c>
-      <c r="CZ1" s="49"/>
-      <c r="DA1" s="49"/>
-      <c r="DB1" s="50"/>
+      <c r="CZ1" s="61"/>
+      <c r="DA1" s="61"/>
+      <c r="DB1" s="62"/>
       <c r="DC1" s="47"/>
       <c r="DD1" s="45">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
@@ -9196,12 +9341,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="CE1:CH1"/>
-    <mergeCell ref="CJ1:CM1"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="CY1:DB1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="AL1:AO1"/>
@@ -9218,6 +9357,12 @@
     <mergeCell ref="CO1:CR1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="CJ1:CM1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.47244094488188981" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
@@ -9225,288 +9370,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D5E2C4-0FA7-49F5-8C8C-7C6F42E88BBD}">
-  <dimension ref="A1:W23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C1">
-        <v>2000</v>
-      </c>
-      <c r="D1">
-        <v>2001</v>
-      </c>
-      <c r="E1">
-        <v>2002</v>
-      </c>
-      <c r="F1">
-        <v>2003</v>
-      </c>
-      <c r="G1">
-        <v>2004</v>
-      </c>
-      <c r="H1">
-        <v>2005</v>
-      </c>
-      <c r="I1">
-        <v>2006</v>
-      </c>
-      <c r="J1">
-        <v>2007</v>
-      </c>
-      <c r="K1">
-        <v>2008</v>
-      </c>
-      <c r="L1">
-        <v>2009</v>
-      </c>
-      <c r="M1">
-        <v>2010</v>
-      </c>
-      <c r="N1">
-        <v>2011</v>
-      </c>
-      <c r="O1">
-        <v>2012</v>
-      </c>
-      <c r="P1">
-        <v>2013</v>
-      </c>
-      <c r="Q1">
-        <v>2014</v>
-      </c>
-      <c r="R1">
-        <v>2015</v>
-      </c>
-      <c r="S1">
-        <v>2016</v>
-      </c>
-      <c r="T1">
-        <v>2017</v>
-      </c>
-      <c r="U1">
-        <v>2018</v>
-      </c>
-      <c r="V1">
-        <v>2019</v>
-      </c>
-      <c r="W1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2">
-        <v>1641506.659947949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>21</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3">
-        <v>18754245.451800499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>22</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4">
-        <v>4731796.39230722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>23</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5">
-        <v>540577.38939915202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6">
-        <v>4039679.2996105524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7">
-        <v>9447107.9080713987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8">
-        <v>29307289.039371632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>46</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9">
-        <v>3524900.4539717608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="56"/>
-      <c r="C10">
-        <v>4523816.8673214298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>51</v>
-      </c>
-      <c r="B11" s="56"/>
-      <c r="C11">
-        <v>3241664.8962724502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>52</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12">
-        <v>464318.15373599296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>53</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13">
-        <v>636408.32690797502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>54</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14">
-        <v>5132623.4175023604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>55</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15">
-        <v>1030316.359627998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>56</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16">
-        <v>226490.75677175759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>61</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17">
-        <v>1835385.8258645879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>62</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18">
-        <v>2283901.8155847099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>71</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19">
-        <v>1260712.611198921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>72</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20">
-        <v>254940.02166214082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>81</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21">
-        <v>1412992.1658984232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>93</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22">
-        <v>1079427.9014568692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>2419079.3718875018</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B732A8-E971-4B76-B2F7-44A0176FFF3F}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -9515,1585 +9382,3452 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="10" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68">
+    <row r="1" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="58">
         <v>2000</v>
       </c>
-      <c r="C1" s="68">
+      <c r="C1" s="58">
         <v>2001</v>
       </c>
-      <c r="D1" s="68">
+      <c r="D1" s="58">
         <v>2002</v>
       </c>
-      <c r="E1" s="68">
+      <c r="E1" s="58">
         <v>2003</v>
       </c>
-      <c r="F1" s="68">
+      <c r="F1" s="58">
         <v>2004</v>
       </c>
-      <c r="G1" s="68">
+      <c r="G1" s="58">
         <v>2005</v>
       </c>
-      <c r="H1" s="68">
+      <c r="H1" s="58">
         <v>2006</v>
       </c>
-      <c r="I1" s="69">
+      <c r="I1" s="59">
         <v>2007</v>
       </c>
-      <c r="J1" s="68">
+      <c r="J1" s="58">
         <v>2008</v>
       </c>
-      <c r="K1" s="68">
+      <c r="K1" s="58">
         <v>2009</v>
       </c>
-      <c r="L1" s="68">
+      <c r="L1" s="58">
         <v>2010</v>
       </c>
-      <c r="M1" s="68">
+      <c r="M1" s="58">
         <v>2011</v>
       </c>
-      <c r="N1" s="68">
+      <c r="N1" s="58">
         <v>2012</v>
       </c>
-      <c r="O1" s="68">
+      <c r="O1" s="58">
         <v>2013</v>
       </c>
-      <c r="P1" s="68">
+      <c r="P1" s="58">
         <v>2014</v>
       </c>
-      <c r="Q1" s="68">
+      <c r="Q1" s="58">
         <v>2015</v>
       </c>
-      <c r="R1" s="68">
+      <c r="R1" s="58">
         <v>2016</v>
       </c>
-      <c r="S1" s="68">
+      <c r="S1" s="58">
         <v>2017</v>
       </c>
-      <c r="T1" s="68">
+      <c r="T1" s="58">
         <v>2018</v>
       </c>
-      <c r="U1" s="68">
+      <c r="U1" s="58">
         <v>2019</v>
       </c>
-      <c r="V1" s="68">
+      <c r="V1" s="58">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
-    <row r="3" spans="1:22" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:22" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="56">
         <v>1641506.659947949</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="56">
         <v>1729593.2932675269</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="56">
         <v>1716177.1170989459</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="56">
         <v>1782546.2117332849</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="56">
         <v>1820860.9601072702</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="56">
         <v>1760939.753834106</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="56">
         <v>1862611.0388449419</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="57">
         <v>1944242.7470610479</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="56">
         <v>1940853.025191752</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="56">
         <v>1902912.9070147041</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="56">
         <v>1952707.4816160011</v>
       </c>
-      <c r="M3" s="66">
+      <c r="M3" s="56">
         <v>1884584.540115346</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="56">
         <v>1996057.2161960471</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="56">
         <v>2039459.8038600429</v>
       </c>
-      <c r="P3" s="66">
+      <c r="P3" s="56">
         <v>2120497.3000297807</v>
       </c>
-      <c r="Q3" s="66">
+      <c r="Q3" s="56">
         <v>2165231.2271657819</v>
       </c>
-      <c r="R3" s="66">
+      <c r="R3" s="56">
         <v>2239848.569375868</v>
       </c>
-      <c r="S3" s="66">
+      <c r="S3" s="56">
         <v>2312835.454286926</v>
       </c>
-      <c r="T3" s="66">
+      <c r="T3" s="56">
         <v>2373820.7510275319</v>
       </c>
-      <c r="U3" s="66">
+      <c r="U3" s="56">
         <v>2370433.8927986007</v>
       </c>
-      <c r="V3" s="66">
+      <c r="V3" s="56">
         <v>2358270.2371324971</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="56">
         <v>18754245.451800499</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="56">
         <v>18378703.889712691</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="56">
         <v>18106375.249966279</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="56">
         <v>18430628.60653653</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="56">
         <v>19106395.830576461</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="56">
         <v>19547413.616481692</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="56">
         <v>20352859.241934359</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="57">
         <v>20539311.17850972</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="56">
         <v>20286383.518040732</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="56">
         <v>18799630.41087262</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="56">
         <v>19655620.65359024</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="56">
         <v>20215884.948951799</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="56">
         <v>20761301.01123172</v>
       </c>
-      <c r="O4" s="66">
+      <c r="O4" s="56">
         <v>20752786.899047188</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="56">
         <v>21290804.432922401</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="56">
         <v>21528587.263664138</v>
       </c>
-      <c r="R4" s="66">
+      <c r="R4" s="56">
         <v>21560439.135449711</v>
       </c>
-      <c r="S4" s="66">
+      <c r="S4" s="56">
         <v>21544979.237887848</v>
       </c>
-      <c r="T4" s="66">
+      <c r="T4" s="56">
         <v>21634131.778894119</v>
       </c>
-      <c r="U4" s="66">
+      <c r="U4" s="56">
         <v>21237029.150705859</v>
       </c>
-      <c r="V4" s="66">
+      <c r="V4" s="56">
         <v>19082746.825668588</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="56">
         <v>4731796.39230722</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="56">
         <v>4870258.5886246897</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="56">
         <v>4897512.7999793701</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="56">
         <v>5136569.7449378297</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="56">
         <v>5219607.7128528403</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="56">
         <v>5231586.9469707105</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="56">
         <v>5155926.1561439298</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="57">
         <v>5026601.9025993999</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="56">
         <v>4766086.4906559298</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="56">
         <v>4524907.1650741603</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="56">
         <v>4572399.8554317709</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="56">
         <v>4591215.4588048002</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="56">
         <v>4643126.0975802001</v>
       </c>
-      <c r="O5" s="66">
+      <c r="O5" s="56">
         <v>4615154.1765593002</v>
       </c>
-      <c r="P5" s="66">
+      <c r="P5" s="56">
         <v>4527761.5845566001</v>
       </c>
-      <c r="Q5" s="66">
+      <c r="Q5" s="56">
         <v>4327368.5806136299</v>
       </c>
-      <c r="R5" s="66">
+      <c r="R5" s="56">
         <v>4139558.47688364</v>
       </c>
-      <c r="S5" s="66">
+      <c r="S5" s="56">
         <v>3796306.512284454</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="56">
         <v>3588158.48127444</v>
       </c>
-      <c r="U5" s="66">
+      <c r="U5" s="56">
         <v>3422770.9078041711</v>
       </c>
-      <c r="V5" s="66">
+      <c r="V5" s="56">
         <v>3383834.0088020777</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="61" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:22" s="51" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="56">
         <v>540577.38939915202</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="56">
         <v>568845.23445312202</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="56">
         <v>567164.28963354905</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="56">
         <v>588538.85707760905</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="56">
         <v>655265.23785007</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="56">
         <v>709726.37083324103</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="56">
         <v>792191.55446625396</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="57">
         <v>840139.38935364899</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="56">
         <v>846646.98927961593</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="56">
         <v>858260.85107352003</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="56">
         <v>896849.214471746</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="56">
         <v>951840.33425926301</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="56">
         <v>970436.96834638808</v>
       </c>
-      <c r="O6" s="66">
+      <c r="O6" s="56">
         <v>975528.27104758797</v>
       </c>
-      <c r="P6" s="66">
+      <c r="P6" s="56">
         <v>1054966.3908650449</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="56">
         <v>1072721.535316762</v>
       </c>
-      <c r="R6" s="66">
+      <c r="R6" s="56">
         <v>1074195.3267056819</v>
       </c>
-      <c r="S6" s="66">
+      <c r="S6" s="56">
         <v>1070263.890475411</v>
       </c>
-      <c r="T6" s="66">
+      <c r="T6" s="56">
         <v>1150108.4673068849</v>
       </c>
-      <c r="U6" s="66">
+      <c r="U6" s="56">
         <v>1142495.2140550269</v>
       </c>
-      <c r="V6" s="66">
+      <c r="V6" s="56">
         <v>1083569.4778473331</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="56">
         <v>4039679.2996105524</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="56">
         <v>3728296.7125693574</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="56">
         <v>3652841.2906662221</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="56">
         <v>3772729.2842548979</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="56">
         <v>4029523.7086666515</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="56">
         <v>4166969.3175888499</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="56">
         <v>4522267.3644008497</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="57">
         <v>4730456.5637078797</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="56">
         <v>4912137.6353807999</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="56">
         <v>4615948.0805358002</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="56">
         <v>4619400.0343810003</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="56">
         <v>4798924.19714751</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="56">
         <v>4920085.2371233394</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="56">
         <v>4843595.7974038497</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="56">
         <v>4971573.3836655701</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="Q7" s="56">
         <v>5078841.6882312391</v>
       </c>
-      <c r="R7" s="66">
+      <c r="R7" s="56">
         <v>5164325.6784915701</v>
       </c>
-      <c r="S7" s="66">
+      <c r="S7" s="56">
         <v>5148115.5004406003</v>
       </c>
-      <c r="T7" s="66">
+      <c r="T7" s="56">
         <v>5157952.9748857208</v>
       </c>
-      <c r="U7" s="66">
+      <c r="U7" s="56">
         <v>4903648.0341967298</v>
       </c>
-      <c r="V7" s="66">
+      <c r="V7" s="56">
         <v>4039473.9633660931</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="56">
         <v>9447107.9080713987</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="56">
         <v>9210780.3027980402</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="56">
         <v>8987627.0107612088</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="56">
         <v>8931129.0859448202</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="56">
         <v>9202541.1955950186</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="56">
         <v>9435710.4103622995</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="56">
         <v>9878003.6142678</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="57">
         <v>9934756.5474390499</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="56">
         <v>9761443.6816430204</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="56">
         <v>8801619.1005340405</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="56">
         <v>9571286.0433706287</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="56">
         <v>9876799.6015607789</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="56">
         <v>10232512.67350699</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="56">
         <v>10318257.769581709</v>
       </c>
-      <c r="P8" s="66">
+      <c r="P8" s="56">
         <v>10732431.72000893</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="Q8" s="56">
         <v>11048362.383158561</v>
       </c>
-      <c r="R8" s="66">
+      <c r="R8" s="56">
         <v>11182124.00036839</v>
       </c>
-      <c r="S8" s="66">
+      <c r="S8" s="56">
         <v>11532162.410718739</v>
       </c>
-      <c r="T8" s="66">
+      <c r="T8" s="56">
         <v>11741113.445275862</v>
       </c>
-      <c r="U8" s="66">
+      <c r="U8" s="56">
         <v>11771815.16486853</v>
       </c>
-      <c r="V8" s="66">
+      <c r="V8" s="56">
         <v>10575908.56233222</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="56">
         <v>29307289.039371632</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="56">
         <v>29451231.578824058</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="56">
         <v>29704610.620929509</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="56">
         <v>30042040.318044059</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="56">
         <v>31203237.27066569</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="56">
         <v>32089271.812300522</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="56">
         <v>33508517.036685891</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="57">
         <v>34530422.425800391</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="56">
         <v>35284511.62272355</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="56">
         <v>33889510.10598816</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="56">
         <v>35805752.179623365</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="56">
         <v>37418690.070081502</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="56">
         <v>38882760.243846491</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="56">
         <v>39794329.020579658</v>
       </c>
-      <c r="P9" s="66">
+      <c r="P9" s="56">
         <v>40884281.170977101</v>
       </c>
-      <c r="Q9" s="66">
+      <c r="Q9" s="56">
         <v>42662006.264744304</v>
       </c>
-      <c r="R9" s="66">
+      <c r="R9" s="56">
         <v>44053930.930060998</v>
       </c>
-      <c r="S9" s="66">
+      <c r="S9" s="56">
         <v>45488318.245016098</v>
       </c>
-      <c r="T9" s="66">
+      <c r="T9" s="56">
         <v>46814371.802852005</v>
       </c>
-      <c r="U9" s="66">
+      <c r="U9" s="56">
         <v>47095554.713734299</v>
       </c>
-      <c r="V9" s="66">
+      <c r="V9" s="56">
         <v>43392630.378737696</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="56">
         <v>3524900.4539717608</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="56">
         <v>3450680.4345161347</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="56">
         <v>3451592.0127597409</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="56">
         <v>3470243.5195711344</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="56">
         <v>3672599.0660105897</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="56">
         <v>3859837.3054098533</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="56">
         <v>4133883.1895637498</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="57">
         <v>4249103.8089244897</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="56">
         <v>4317313.4595815195</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="56">
         <v>3889960.6547037722</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="56">
         <v>4413812.3187848497</v>
       </c>
-      <c r="M10" s="66">
+      <c r="M10" s="56">
         <v>4808193.7180455998</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="56">
         <v>5102033.3338925801</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="56">
         <v>5150600.0182905104</v>
       </c>
-      <c r="P10" s="66">
+      <c r="P10" s="56">
         <v>5445335.8798601497</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="Q10" s="56">
         <v>5730940.0302252602</v>
       </c>
-      <c r="R10" s="66">
+      <c r="R10" s="56">
         <v>5841125.05346209</v>
       </c>
-      <c r="S10" s="66">
+      <c r="S10" s="56">
         <v>6103415.5556779597</v>
       </c>
-      <c r="T10" s="66">
+      <c r="T10" s="56">
         <v>6320083.4814138897</v>
       </c>
-      <c r="U10" s="66">
+      <c r="U10" s="56">
         <v>6258048.4364991598</v>
       </c>
-      <c r="V10" s="66">
+      <c r="V10" s="56">
         <v>5686786.7836637003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+    <row r="11" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="56">
         <v>4523816.8673214298</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="56">
         <v>4621433.3232296696</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="56">
         <v>4703834.5011464795</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="56">
         <v>4760434.98935501</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="56">
         <v>4945954.6509059602</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="56">
         <v>5138226.9457734898</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="56">
         <v>5349963.0659180302</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="57">
         <v>5426271.0938441809</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="56">
         <v>5424328.6370969694</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="56">
         <v>4683822.01758641</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="56">
         <v>5166254.8050236097</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="56">
         <v>5593410.2986249402</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="56">
         <v>5653531.1230238406</v>
       </c>
-      <c r="O11" s="66">
+      <c r="O11" s="56">
         <v>5823628.6482481305</v>
       </c>
-      <c r="P11" s="66">
+      <c r="P11" s="56">
         <v>5916191.7388593201</v>
       </c>
-      <c r="Q11" s="66">
+      <c r="Q11" s="56">
         <v>6128318.7101825401</v>
       </c>
-      <c r="R11" s="66">
+      <c r="R11" s="56">
         <v>6305322.2666636296</v>
       </c>
-      <c r="S11" s="66">
+      <c r="S11" s="56">
         <v>6507324.7133804206</v>
       </c>
-      <c r="T11" s="66">
+      <c r="T11" s="56">
         <v>6683430.2365091499</v>
       </c>
-      <c r="U11" s="66">
+      <c r="U11" s="56">
         <v>6642308.9499717401</v>
       </c>
-      <c r="V11" s="66">
+      <c r="V11" s="56">
         <v>5965163.5319433594</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="61" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:22" s="51" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="56">
         <v>3241664.8962724502</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="56">
         <v>3263039.7560350001</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="56">
         <v>3233895.554176623</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="56">
         <v>3216274.8417630205</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="56">
         <v>3325067.1268169698</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="56">
         <v>3402299.6173690469</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="56">
         <v>3546244.949879644</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="57">
         <v>3663375.6014689831</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="56">
         <v>3627973.8821857059</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="56">
         <v>3374025.374324705</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="56">
         <v>3652946.5971741797</v>
       </c>
-      <c r="M12" s="66">
+      <c r="M12" s="56">
         <v>3798419.0524671269</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="56">
         <v>3947173.0629495229</v>
       </c>
-      <c r="O12" s="66">
+      <c r="O12" s="56">
         <v>4048258.3328107898</v>
       </c>
-      <c r="P12" s="66">
+      <c r="P12" s="56">
         <v>4189665.2788978396</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="Q12" s="56">
         <v>4358916.7606020197</v>
       </c>
-      <c r="R12" s="66">
+      <c r="R12" s="56">
         <v>4482047.3405847494</v>
       </c>
-      <c r="S12" s="66">
+      <c r="S12" s="56">
         <v>4665644.04038727</v>
       </c>
-      <c r="T12" s="66">
+      <c r="T12" s="56">
         <v>4810951.6341418196</v>
       </c>
-      <c r="U12" s="66">
+      <c r="U12" s="56">
         <v>4804498.73849025</v>
       </c>
-      <c r="V12" s="66">
+      <c r="V12" s="56">
         <v>3799914.2126538483</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="61" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:22" s="51" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="56">
         <v>464318.15373599296</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="56">
         <v>482568.727975833</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="56">
         <v>498825.74669895804</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="56">
         <v>541036.20405397599</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="56">
         <v>626154.08782140305</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="56">
         <v>714454.10390015901</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="56">
         <v>803676.72048931103</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="57">
         <v>949673.75680098101</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="56">
         <v>1000151.054024064</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="56">
         <v>1064021.4002938471</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="56">
         <v>1064672.8543515841</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="56">
         <v>1108020.2791825191</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="56">
         <v>1244664.2615526309</v>
       </c>
-      <c r="O13" s="66">
+      <c r="O13" s="56">
         <v>1299732.6826770068</v>
       </c>
-      <c r="P13" s="66">
+      <c r="P13" s="56">
         <v>1369508.271431312</v>
       </c>
-      <c r="Q13" s="66">
+      <c r="Q13" s="56">
         <v>1645389.8479716091</v>
       </c>
-      <c r="R13" s="66">
+      <c r="R13" s="56">
         <v>1922044.209844894</v>
       </c>
-      <c r="S13" s="66">
+      <c r="S13" s="56">
         <v>2105989.6792477309</v>
       </c>
-      <c r="T13" s="66">
+      <c r="T13" s="56">
         <v>2223103.809889615</v>
       </c>
-      <c r="U13" s="66">
+      <c r="U13" s="56">
         <v>2302366.1860133503</v>
       </c>
-      <c r="V13" s="66">
+      <c r="V13" s="56">
         <v>2248680.8702062881</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="61" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:22" s="51" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="56">
         <v>636408.32690797502</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="56">
         <v>670315.98030104511</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="56">
         <v>714739.57335601398</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="56">
         <v>744930.43527011795</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="56">
         <v>900710.88291762501</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="56">
         <v>844334.77640783705</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="56">
         <v>941641.92187832401</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="57">
         <v>1023602.9249284479</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="56">
         <v>1273945.0230529462</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="56">
         <v>1388820.28112841</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="56">
         <v>1648513.9000209772</v>
       </c>
-      <c r="M14" s="66">
+      <c r="M14" s="56">
         <v>1713741.9495611212</v>
       </c>
-      <c r="N14" s="66">
+      <c r="N14" s="56">
         <v>1955206.9768216049</v>
       </c>
-      <c r="O14" s="66">
+      <c r="O14" s="56">
         <v>2269256.8661556221</v>
       </c>
-      <c r="P14" s="66">
+      <c r="P14" s="56">
         <v>2463842.7167159412</v>
       </c>
-      <c r="Q14" s="66">
+      <c r="Q14" s="56">
         <v>2828427.2687887661</v>
       </c>
-      <c r="R14" s="66">
+      <c r="R14" s="56">
         <v>3175031.0711425212</v>
       </c>
-      <c r="S14" s="66">
+      <c r="S14" s="56">
         <v>3361071.9743639864</v>
       </c>
-      <c r="T14" s="66">
+      <c r="T14" s="56">
         <v>3527639.9436037159</v>
       </c>
-      <c r="U14" s="66">
+      <c r="U14" s="56">
         <v>3603994.9475881462</v>
       </c>
-      <c r="V14" s="66">
+      <c r="V14" s="56">
         <v>3483096.9349243692</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="61" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:22" s="51" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="56">
         <v>5132623.4175023604</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="56">
         <v>5325788.0814123899</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="56">
         <v>5448833.83889715</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="56">
         <v>5654704.2034823401</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="56">
         <v>5858676.5443881992</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="56">
         <v>5997128.5870375298</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="56">
         <v>6247371.14503692</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="57">
         <v>6460266.2647843203</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="56">
         <v>6676149.8774310108</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="56">
         <v>6740656.1370441206</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="56">
         <v>6956856.9978108099</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M15" s="56">
         <v>7163092.8452705704</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="56">
         <v>7348098.0022360506</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O15" s="56">
         <v>7416184.2077742396</v>
       </c>
-      <c r="P15" s="66">
+      <c r="P15" s="56">
         <v>7581098.5366386706</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="Q15" s="56">
         <v>7765595.8758826293</v>
       </c>
-      <c r="R15" s="66">
+      <c r="R15" s="56">
         <v>7919561.3264712691</v>
       </c>
-      <c r="S15" s="66">
+      <c r="S15" s="56">
         <v>8022382.9402204808</v>
       </c>
-      <c r="T15" s="66">
+      <c r="T15" s="56">
         <v>8156858.8547530398</v>
       </c>
-      <c r="U15" s="66">
+      <c r="U15" s="56">
         <v>8257599.7250603791</v>
       </c>
-      <c r="V15" s="66">
+      <c r="V15" s="56">
         <v>8234485.4093583003</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="61" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:22" s="51" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="56">
         <v>1030316.359627998</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="56">
         <v>1045268.749759349</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="56">
         <v>1049463.9343313212</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="56">
         <v>1063022.66402432</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="56">
         <v>1107199.422762498</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="56">
         <v>1140870.6255539409</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="56">
         <v>1175634.861547353</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="57">
         <v>1212997.8568555119</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="56">
         <v>1248828.7242955391</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="56">
         <v>1195799.9040170889</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="56">
         <v>1193099.179672909</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="56">
         <v>1248368.38005788</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="56">
         <v>1261977.4704846679</v>
       </c>
-      <c r="O16" s="66">
+      <c r="O16" s="56">
         <v>1246087.7743979939</v>
       </c>
-      <c r="P16" s="66">
+      <c r="P16" s="56">
         <v>1257000.3550124341</v>
       </c>
-      <c r="Q16" s="66">
+      <c r="Q16" s="56">
         <v>1324141.9470380889</v>
       </c>
-      <c r="R16" s="66">
+      <c r="R16" s="56">
         <v>1378561.692451166</v>
       </c>
-      <c r="S16" s="66">
+      <c r="S16" s="56">
         <v>1371789.0077903019</v>
       </c>
-      <c r="T16" s="66">
+      <c r="T16" s="56">
         <v>1395832.155371719</v>
       </c>
-      <c r="U16" s="66">
+      <c r="U16" s="56">
         <v>1396901.155485749</v>
       </c>
-      <c r="V16" s="66">
+      <c r="V16" s="56">
         <v>1300846.0894792802</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="56">
         <v>226490.75677175759</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="56">
         <v>221175.714783868</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="56">
         <v>223228.9021666148</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="56">
         <v>251759.9712693856</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="56">
         <v>257790.9386021705</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="56">
         <v>268166.27443442401</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="56">
         <v>306581.46369614813</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="57">
         <v>309467.5051767843</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="56">
         <v>333084.20418912411</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="56">
         <v>309622.21283949318</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="56">
         <v>323790.6008778899</v>
       </c>
-      <c r="M17" s="66">
+      <c r="M17" s="56">
         <v>334681.74841654499</v>
       </c>
-      <c r="N17" s="66">
+      <c r="N17" s="56">
         <v>367711.0335925445</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O17" s="56">
         <v>361491.39336293167</v>
       </c>
-      <c r="P17" s="66">
+      <c r="P17" s="56">
         <v>393449.09287205792</v>
       </c>
-      <c r="Q17" s="66">
+      <c r="Q17" s="56">
         <v>412103.72669327399</v>
       </c>
-      <c r="R17" s="66">
+      <c r="R17" s="56">
         <v>407151.56359654898</v>
       </c>
-      <c r="S17" s="66">
+      <c r="S17" s="56">
         <v>412985.31787462998</v>
       </c>
-      <c r="T17" s="66">
+      <c r="T17" s="56">
         <v>438360.32270699297</v>
       </c>
-      <c r="U17" s="66">
+      <c r="U17" s="56">
         <v>433903.464020035</v>
       </c>
-      <c r="V17" s="66">
+      <c r="V17" s="56">
         <v>402455.75403808837</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:22" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="56">
         <v>1835385.8258645879</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="56">
         <v>1806276.777207775</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="56">
         <v>1810171.2943301359</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="56">
         <v>1802591.3994642191</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="56">
         <v>1863487.6192541348</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="56">
         <v>1929604.1686875999</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="56">
         <v>2002446.687423673</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="57">
         <v>2065947.764884972</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="56">
         <v>2115074.572101526</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="56">
         <v>1983546.9341405611</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="56">
         <v>2001959.688701204</v>
       </c>
-      <c r="M18" s="66">
+      <c r="M18" s="56">
         <v>2121490.4655295582</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="56">
         <v>2208988.901178617</v>
       </c>
-      <c r="O18" s="66">
+      <c r="O18" s="56">
         <v>2308050.3176552136</v>
       </c>
-      <c r="P18" s="66">
+      <c r="P18" s="56">
         <v>2293905.3960964344</v>
       </c>
-      <c r="Q18" s="66">
+      <c r="Q18" s="56">
         <v>2316310.782619236</v>
       </c>
-      <c r="R18" s="66">
+      <c r="R18" s="56">
         <v>2352219.6679944834</v>
       </c>
-      <c r="S18" s="66">
+      <c r="S18" s="56">
         <v>2539383.1631667111</v>
       </c>
-      <c r="T18" s="66">
+      <c r="T18" s="56">
         <v>2657046.7268750132</v>
       </c>
-      <c r="U18" s="66">
+      <c r="U18" s="56">
         <v>2781942.114856699</v>
       </c>
-      <c r="V18" s="66">
+      <c r="V18" s="56">
         <v>2776635.7391001652</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+    <row r="19" spans="1:22" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="56">
         <v>2283901.8155847099</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="56">
         <v>2325763.9929895368</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="56">
         <v>2362438.873726523</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="56">
         <v>2403427.3678892278</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="56">
         <v>2434513.0263129161</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="56">
         <v>2479373.456700319</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="56">
         <v>2479233.7741423883</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="57">
         <v>2523625.41498404</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="56">
         <v>2553007.7934817909</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="56">
         <v>2566162.2984841219</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="56">
         <v>2564275.8610409289</v>
       </c>
-      <c r="M19" s="66">
+      <c r="M19" s="56">
         <v>2605648.2977573141</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="56">
         <v>2641938.2931873519</v>
       </c>
-      <c r="O19" s="66">
+      <c r="O19" s="56">
         <v>2655068.0162362028</v>
       </c>
-      <c r="P19" s="66">
+      <c r="P19" s="56">
         <v>2670182.3754444979</v>
       </c>
-      <c r="Q19" s="66">
+      <c r="Q19" s="56">
         <v>2668023.9612539751</v>
       </c>
-      <c r="R19" s="66">
+      <c r="R19" s="56">
         <v>2695416.4401347078</v>
       </c>
-      <c r="S19" s="66">
+      <c r="S19" s="56">
         <v>2726128.8141252818</v>
       </c>
-      <c r="T19" s="66">
+      <c r="T19" s="56">
         <v>2740170.7133743623</v>
       </c>
-      <c r="U19" s="66">
+      <c r="U19" s="56">
         <v>2753864.5141420579</v>
       </c>
-      <c r="V19" s="66">
+      <c r="V19" s="56">
         <v>2640302.1878140769</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="61" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:22" s="51" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="56">
         <v>1260712.611198921</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="56">
         <v>1264764.0190258631</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="56">
         <v>1247938.84129701</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="56">
         <v>1198379.054603772</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="56">
         <v>1214738.966849643</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="56">
         <v>1237415.877702269</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="56">
         <v>1336518.8846223271</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="57">
         <v>1356097.329892375</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="56">
         <v>1370931.1392768871</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="56">
         <v>1398691.5936013251</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="56">
         <v>1406658.6822435148</v>
       </c>
-      <c r="M20" s="66">
+      <c r="M20" s="56">
         <v>1443575.549389631</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="56">
         <v>1479964.0293689321</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="56">
         <v>1496704.716393735</v>
       </c>
-      <c r="P20" s="66">
+      <c r="P20" s="56">
         <v>1491770.022946795</v>
       </c>
-      <c r="Q20" s="66">
+      <c r="Q20" s="56">
         <v>1464787.1101829619</v>
       </c>
-      <c r="R20" s="66">
+      <c r="R20" s="56">
         <v>1505434.4342836859</v>
       </c>
-      <c r="S20" s="66">
+      <c r="S20" s="56">
         <v>1525959.6830331709</v>
       </c>
-      <c r="T20" s="66">
+      <c r="T20" s="56">
         <v>1570786.1647853979</v>
       </c>
-      <c r="U20" s="66">
+      <c r="U20" s="56">
         <v>1593309.6724825362</v>
       </c>
-      <c r="V20" s="66">
+      <c r="V20" s="56">
         <v>1620736.7276677059</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="61" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:22" s="51" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="56">
         <v>254940.02166214082</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="56">
         <v>236172.74871234389</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="56">
         <v>237135.9411853599</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="56">
         <v>237792.62003978717</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="56">
         <v>240489.58498860052</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="56">
         <v>239429.12328571599</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="56">
         <v>252343.68416791188</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="57">
         <v>263800.27369005181</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="56">
         <v>264765.77893000917</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="56">
         <v>255258.98326033779</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="56">
         <v>267937.06444397499</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="56">
         <v>265391.47535298369</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="56">
         <v>273946.32815707679</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="56">
         <v>292836.03864988859</v>
       </c>
-      <c r="P21" s="66">
+      <c r="P21" s="56">
         <v>280953.59558311431</v>
       </c>
-      <c r="Q21" s="66">
+      <c r="Q21" s="56">
         <v>289163.50143222255</v>
       </c>
-      <c r="R21" s="66">
+      <c r="R21" s="56">
         <v>299769.36225338257</v>
       </c>
-      <c r="S21" s="66">
+      <c r="S21" s="56">
         <v>304890.86613417353</v>
       </c>
-      <c r="T21" s="66">
+      <c r="T21" s="56">
         <v>311960.26199395454</v>
       </c>
-      <c r="U21" s="66">
+      <c r="U21" s="56">
         <v>309576.8704781484</v>
       </c>
-      <c r="V21" s="66">
+      <c r="V21" s="56">
         <v>141474.96316613728</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="61" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:22" s="51" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="66">
+      <c r="B22" s="56">
         <v>1412992.1658984232</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="56">
         <v>1374998.6371447381</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="56">
         <v>1308026.180036</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="56">
         <v>1283643.9821327929</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="56">
         <v>1330202.649250048</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="56">
         <v>1351164.288167825</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="56">
         <v>1373182.2088233801</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="57">
         <v>1400833.468277209</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="56">
         <v>1397572.323694001</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="56">
         <v>1258983.463900995</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="56">
         <v>1276941.8432337539</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="56">
         <v>1300294.9462245489</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="56">
         <v>1363527.0343930519</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="56">
         <v>1378291.07107015</v>
       </c>
-      <c r="P22" s="66">
+      <c r="P22" s="56">
         <v>1406817.3512589291</v>
       </c>
-      <c r="Q22" s="66">
+      <c r="Q22" s="56">
         <v>1501608.259429819</v>
       </c>
-      <c r="R22" s="66">
+      <c r="R22" s="56">
         <v>1540812.574800245</v>
       </c>
-      <c r="S22" s="66">
+      <c r="S22" s="56">
         <v>1589205.374364007</v>
       </c>
-      <c r="T22" s="66">
+      <c r="T22" s="56">
         <v>1623681.1321611907</v>
       </c>
-      <c r="U22" s="66">
+      <c r="U22" s="56">
         <v>1649399.7155939331</v>
       </c>
-      <c r="V22" s="66">
+      <c r="V22" s="56">
         <v>930607.07881551201</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="61" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+    <row r="23" spans="1:22" s="51" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="56">
         <v>1079427.9014568692</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="56">
         <v>1091899.8696995829</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="56">
         <v>1103593.4184689359</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="56">
         <v>1110203.604775467</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="56">
         <v>1138541.3585314881</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="56">
         <v>1173095.775696381</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="56">
         <v>1211871.852140557</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="57">
         <v>1255110.366578168</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="56">
         <v>1270406.0025216269</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K23" s="56">
         <v>1263613.055305237</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="56">
         <v>1273344.8775513209</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M23" s="56">
         <v>1295724.0683618069</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N23" s="56">
         <v>1335215.129539493</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O23" s="56">
         <v>1359786.217750313</v>
       </c>
-      <c r="P23" s="66">
+      <c r="P23" s="56">
         <v>1370345.1804221938</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="56">
         <v>1416411.0560707301</v>
       </c>
-      <c r="R23" s="66">
+      <c r="R23" s="56">
         <v>1446673.20644191</v>
       </c>
-      <c r="S23" s="66">
+      <c r="S23" s="56">
         <v>1441014.2506575692</v>
       </c>
-      <c r="T23" s="66">
+      <c r="T23" s="56">
         <v>1452290.2227964969</v>
       </c>
-      <c r="U23" s="66">
+      <c r="U23" s="56">
         <v>1463674.9264912969</v>
       </c>
-      <c r="V23" s="66">
+      <c r="V23" s="56">
         <v>1249547.7106103611</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="61" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+    <row r="24" spans="1:22" s="51" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="56">
         <v>2419079.3718875018</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="56">
         <v>2272029.0268581742</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="56">
         <v>2301747.242118632</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="56">
         <v>2292531.6174971312</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="56">
         <v>2287776.043338228</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="56">
         <v>2303044.6223349809</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="56">
         <v>2348127.3358944939</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="57">
         <v>2367074.6142689679</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="56">
         <v>2420830.8230517502</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="56">
         <v>2506759.6816288717</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="56">
         <v>2585633.3963361299</v>
       </c>
-      <c r="M24" s="66">
+      <c r="M24" s="56">
         <v>2617196.144935267</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="56">
         <v>2724825.8303356296</v>
       </c>
-      <c r="O24" s="66">
+      <c r="O24" s="56">
         <v>2687068.9517857414</v>
       </c>
-      <c r="P24" s="66">
+      <c r="P24" s="56">
         <v>2742237.0453952672</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q24" s="56">
         <v>2802468.2017640737</v>
       </c>
-      <c r="R24" s="66">
+      <c r="R24" s="56">
         <v>2805763.570413718</v>
       </c>
-      <c r="S24" s="66">
+      <c r="S24" s="56">
         <v>2812135.353451781</v>
       </c>
-      <c r="T24" s="66">
+      <c r="T24" s="56">
         <v>2904960.0783761484</v>
       </c>
-      <c r="U24" s="66">
+      <c r="U24" s="56">
         <v>2845702.038009699</v>
       </c>
-      <c r="V24" s="66">
+      <c r="V24" s="56">
         <v>2909593.9493768727</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FA1A0A-A423-4B02-A507-A0CFE5391D75}">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" style="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="67">
+        <v>24840.050999999999</v>
+      </c>
+      <c r="C2" s="67">
+        <v>26356.268</v>
+      </c>
+      <c r="D2" s="67">
+        <v>27809.306</v>
+      </c>
+      <c r="E2" s="67">
+        <v>31043.103999999999</v>
+      </c>
+      <c r="F2" s="67">
+        <v>36272.091999999997</v>
+      </c>
+      <c r="G2" s="67">
+        <v>34793.377</v>
+      </c>
+      <c r="H2" s="67">
+        <v>30786.29</v>
+      </c>
+      <c r="I2" s="67">
+        <v>37698.741999999998</v>
+      </c>
+      <c r="J2" s="67">
+        <v>39282.601999999999</v>
+      </c>
+      <c r="K2" s="67">
+        <v>41926.843000000001</v>
+      </c>
+      <c r="L2" s="67">
+        <v>44876.487999999998</v>
+      </c>
+      <c r="M2" s="67">
+        <v>54848.811999999998</v>
+      </c>
+      <c r="N2" s="67">
+        <v>57870.029000000002</v>
+      </c>
+      <c r="O2" s="67">
+        <v>60918.970999999998</v>
+      </c>
+      <c r="P2" s="67">
+        <v>62225.074999999997</v>
+      </c>
+      <c r="Q2" s="67">
+        <v>65820.785999999993</v>
+      </c>
+      <c r="R2" s="67">
+        <v>65935.493000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="67">
+        <v>105062.014</v>
+      </c>
+      <c r="C3" s="67">
+        <v>111492.052</v>
+      </c>
+      <c r="D3" s="67">
+        <v>111415.304</v>
+      </c>
+      <c r="E3" s="67">
+        <v>121639.16800000001</v>
+      </c>
+      <c r="F3" s="67">
+        <v>118429.204</v>
+      </c>
+      <c r="G3" s="67">
+        <v>111219.064</v>
+      </c>
+      <c r="H3" s="67">
+        <v>91268.251999999993</v>
+      </c>
+      <c r="I3" s="67">
+        <v>97119.667000000001</v>
+      </c>
+      <c r="J3" s="67">
+        <v>94818.577999999994</v>
+      </c>
+      <c r="K3" s="67">
+        <v>99629.206999999995</v>
+      </c>
+      <c r="L3" s="67">
+        <v>100695.55</v>
+      </c>
+      <c r="M3" s="67">
+        <v>110058.12</v>
+      </c>
+      <c r="N3" s="67">
+        <v>123650.717</v>
+      </c>
+      <c r="O3" s="67">
+        <v>129407.683</v>
+      </c>
+      <c r="P3" s="67">
+        <v>132549.636</v>
+      </c>
+      <c r="Q3" s="67">
+        <v>140237.05100000001</v>
+      </c>
+      <c r="R3" s="67">
+        <v>146750.02299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="67">
+        <v>2017.9839999999999</v>
+      </c>
+      <c r="C4" s="67">
+        <v>1909.155</v>
+      </c>
+      <c r="D4" s="67">
+        <v>1976.171</v>
+      </c>
+      <c r="E4" s="67">
+        <v>2074.3240000000001</v>
+      </c>
+      <c r="F4" s="67">
+        <v>2226.33</v>
+      </c>
+      <c r="G4" s="67">
+        <v>2198.6869999999999</v>
+      </c>
+      <c r="H4" s="67">
+        <v>2065.183</v>
+      </c>
+      <c r="I4" s="67">
+        <v>2041.3620000000001</v>
+      </c>
+      <c r="J4" s="67">
+        <v>2022.3409999999999</v>
+      </c>
+      <c r="K4" s="67">
+        <v>1988.3330000000001</v>
+      </c>
+      <c r="L4" s="67">
+        <v>2113.0659999999998</v>
+      </c>
+      <c r="M4" s="67">
+        <v>2213.078</v>
+      </c>
+      <c r="N4" s="67">
+        <v>2167.4290000000001</v>
+      </c>
+      <c r="O4" s="67">
+        <v>2163.8960000000002</v>
+      </c>
+      <c r="P4" s="67">
+        <v>2156.3420000000001</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>2160.4789999999998</v>
+      </c>
+      <c r="R4" s="67">
+        <v>2232.7620000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="67">
+        <v>2616.1559999999999</v>
+      </c>
+      <c r="C5" s="67">
+        <v>2461.6469999999999</v>
+      </c>
+      <c r="D5" s="67">
+        <v>2425.1129999999998</v>
+      </c>
+      <c r="E5" s="67">
+        <v>2468.36</v>
+      </c>
+      <c r="F5" s="67">
+        <v>2572.7130000000002</v>
+      </c>
+      <c r="G5" s="67">
+        <v>2734.2759999999998</v>
+      </c>
+      <c r="H5" s="67">
+        <v>2814.6750000000002</v>
+      </c>
+      <c r="I5" s="67">
+        <v>2794.5039999999999</v>
+      </c>
+      <c r="J5" s="67">
+        <v>2858.5680000000002</v>
+      </c>
+      <c r="K5" s="67">
+        <v>2752.4879999999998</v>
+      </c>
+      <c r="L5" s="67">
+        <v>2858.13</v>
+      </c>
+      <c r="M5" s="67">
+        <v>2868.34</v>
+      </c>
+      <c r="N5" s="67">
+        <v>2800.2289999999998</v>
+      </c>
+      <c r="O5" s="67">
+        <v>2642.6010000000001</v>
+      </c>
+      <c r="P5" s="67">
+        <v>2529.33</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>2549.1590000000001</v>
+      </c>
+      <c r="R5" s="67">
+        <v>2633.1779999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="67">
+        <v>190335.86199999999</v>
+      </c>
+      <c r="C6" s="67">
+        <v>198441.83199999999</v>
+      </c>
+      <c r="D6" s="67">
+        <v>192891.745</v>
+      </c>
+      <c r="E6" s="67">
+        <v>203715.147</v>
+      </c>
+      <c r="F6" s="67">
+        <v>206861.503</v>
+      </c>
+      <c r="G6" s="67">
+        <v>196504.29399999999</v>
+      </c>
+      <c r="H6" s="67">
+        <v>138716.443</v>
+      </c>
+      <c r="I6" s="67">
+        <v>189344.56099999999</v>
+      </c>
+      <c r="J6" s="67">
+        <v>205902.51300000001</v>
+      </c>
+      <c r="K6" s="67">
+        <v>221832.033</v>
+      </c>
+      <c r="L6" s="67">
+        <v>214248.51699999999</v>
+      </c>
+      <c r="M6" s="67">
+        <v>222982.70499999999</v>
+      </c>
+      <c r="N6" s="67">
+        <v>220702.201</v>
+      </c>
+      <c r="O6" s="67">
+        <v>217899.68900000001</v>
+      </c>
+      <c r="P6" s="67">
+        <v>226872.228</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>235252.50099999999</v>
+      </c>
+      <c r="R6" s="67">
+        <v>234707.32199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="67">
+        <v>3180.953</v>
+      </c>
+      <c r="C7" s="67">
+        <v>3421.65</v>
+      </c>
+      <c r="D7" s="67">
+        <v>3420.06</v>
+      </c>
+      <c r="E7" s="67">
+        <v>3331.46</v>
+      </c>
+      <c r="F7" s="67">
+        <v>3325.002</v>
+      </c>
+      <c r="G7" s="67">
+        <v>3400.13</v>
+      </c>
+      <c r="H7" s="67">
+        <v>3460.317</v>
+      </c>
+      <c r="I7" s="67">
+        <v>3796.4760000000001</v>
+      </c>
+      <c r="J7" s="67">
+        <v>3915.53</v>
+      </c>
+      <c r="K7" s="67">
+        <v>3874.8510000000001</v>
+      </c>
+      <c r="L7" s="67">
+        <v>3992.375</v>
+      </c>
+      <c r="M7" s="67">
+        <v>3914.1109999999999</v>
+      </c>
+      <c r="N7" s="67">
+        <v>4134.848</v>
+      </c>
+      <c r="O7" s="67">
+        <v>4144.8540000000003</v>
+      </c>
+      <c r="P7" s="67">
+        <v>4159.6620000000003</v>
+      </c>
+      <c r="Q7" s="67">
+        <v>4214.723</v>
+      </c>
+      <c r="R7" s="67">
+        <v>4087.991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="67">
+        <v>31457.94</v>
+      </c>
+      <c r="C8" s="67">
+        <v>29417.956999999999</v>
+      </c>
+      <c r="D8" s="67">
+        <v>27911.174999999999</v>
+      </c>
+      <c r="E8" s="67">
+        <v>28794.798999999999</v>
+      </c>
+      <c r="F8" s="67">
+        <v>29437.521000000001</v>
+      </c>
+      <c r="G8" s="67">
+        <v>28970.248</v>
+      </c>
+      <c r="H8" s="67">
+        <v>29508.528999999999</v>
+      </c>
+      <c r="I8" s="67">
+        <v>29816.386999999999</v>
+      </c>
+      <c r="J8" s="67">
+        <v>30686.857</v>
+      </c>
+      <c r="K8" s="67">
+        <v>29882.510999999999</v>
+      </c>
+      <c r="L8" s="67">
+        <v>29022.838</v>
+      </c>
+      <c r="M8" s="67">
+        <v>30714.756000000001</v>
+      </c>
+      <c r="N8" s="67">
+        <v>30012.080999999998</v>
+      </c>
+      <c r="O8" s="67">
+        <v>29427.751</v>
+      </c>
+      <c r="P8" s="67">
+        <v>25961.065999999999</v>
+      </c>
+      <c r="Q8" s="67">
+        <v>23596.381000000001</v>
+      </c>
+      <c r="R8" s="67">
+        <v>21376.905999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="67">
+        <v>91659.232000000004</v>
+      </c>
+      <c r="C9" s="67">
+        <v>96976.232999999993</v>
+      </c>
+      <c r="D9" s="67">
+        <v>99907.971000000005</v>
+      </c>
+      <c r="E9" s="67">
+        <v>108845.474</v>
+      </c>
+      <c r="F9" s="67">
+        <v>109652.474</v>
+      </c>
+      <c r="G9" s="67">
+        <v>110123.302</v>
+      </c>
+      <c r="H9" s="67">
+        <v>92935.464999999997</v>
+      </c>
+      <c r="I9" s="67">
+        <v>98573.22</v>
+      </c>
+      <c r="J9" s="67">
+        <v>101462.16899999999</v>
+      </c>
+      <c r="K9" s="67">
+        <v>116731.923</v>
+      </c>
+      <c r="L9" s="67">
+        <v>122756.47900000001</v>
+      </c>
+      <c r="M9" s="67">
+        <v>125477.92</v>
+      </c>
+      <c r="N9" s="67">
+        <v>132599.49900000001</v>
+      </c>
+      <c r="O9" s="67">
+        <v>140998.42000000001</v>
+      </c>
+      <c r="P9" s="67">
+        <v>147191.337</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>149510.95600000001</v>
+      </c>
+      <c r="R9" s="67">
+        <v>151733.80100000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="67">
+        <v>188795.79</v>
+      </c>
+      <c r="C10" s="67">
+        <v>190287.231</v>
+      </c>
+      <c r="D10" s="67">
+        <v>191878.92600000001</v>
+      </c>
+      <c r="E10" s="67">
+        <v>199452.56200000001</v>
+      </c>
+      <c r="F10" s="67">
+        <v>196514.42</v>
+      </c>
+      <c r="G10" s="67">
+        <v>193484.166</v>
+      </c>
+      <c r="H10" s="67">
+        <v>181706.31099999999</v>
+      </c>
+      <c r="I10" s="67">
+        <v>179544.538</v>
+      </c>
+      <c r="J10" s="67">
+        <v>174099.247</v>
+      </c>
+      <c r="K10" s="67">
+        <v>171184.927</v>
+      </c>
+      <c r="L10" s="67">
+        <v>168347.23499999999</v>
+      </c>
+      <c r="M10" s="67">
+        <v>167441.46900000001</v>
+      </c>
+      <c r="N10" s="67">
+        <v>164385.34</v>
+      </c>
+      <c r="O10" s="67">
+        <v>163267.37400000001</v>
+      </c>
+      <c r="P10" s="67">
+        <v>164287.08900000001</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>167227.62400000001</v>
+      </c>
+      <c r="R10" s="67">
+        <v>165576.166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="67">
+        <v>26359.123</v>
+      </c>
+      <c r="C11" s="67">
+        <v>26586.946</v>
+      </c>
+      <c r="D11" s="67">
+        <v>26786.63</v>
+      </c>
+      <c r="E11" s="67">
+        <v>26196.922999999999</v>
+      </c>
+      <c r="F11" s="67">
+        <v>25643.886999999999</v>
+      </c>
+      <c r="G11" s="67">
+        <v>27720.643</v>
+      </c>
+      <c r="H11" s="67">
+        <v>27231.503000000001</v>
+      </c>
+      <c r="I11" s="67">
+        <v>27705.922999999999</v>
+      </c>
+      <c r="J11" s="67">
+        <v>28926.359</v>
+      </c>
+      <c r="K11" s="67">
+        <v>30979.208999999999</v>
+      </c>
+      <c r="L11" s="67">
+        <v>30841.927</v>
+      </c>
+      <c r="M11" s="67">
+        <v>29491.472000000002</v>
+      </c>
+      <c r="N11" s="67">
+        <v>29817.725999999999</v>
+      </c>
+      <c r="O11" s="67">
+        <v>30395.075000000001</v>
+      </c>
+      <c r="P11" s="67">
+        <v>29980.976999999999</v>
+      </c>
+      <c r="Q11" s="67">
+        <v>31677.557000000001</v>
+      </c>
+      <c r="R11" s="67">
+        <v>32731.421999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="67">
+        <v>99077.650999999998</v>
+      </c>
+      <c r="C12" s="67">
+        <v>103818.011</v>
+      </c>
+      <c r="D12" s="67">
+        <v>105891.192</v>
+      </c>
+      <c r="E12" s="67">
+        <v>108223.624</v>
+      </c>
+      <c r="F12" s="67">
+        <v>108032.97100000001</v>
+      </c>
+      <c r="G12" s="67">
+        <v>110694.11</v>
+      </c>
+      <c r="H12" s="67">
+        <v>107990.326</v>
+      </c>
+      <c r="I12" s="67">
+        <v>123390.838</v>
+      </c>
+      <c r="J12" s="67">
+        <v>128172.711</v>
+      </c>
+      <c r="K12" s="67">
+        <v>132402.92300000001</v>
+      </c>
+      <c r="L12" s="67">
+        <v>140603.14300000001</v>
+      </c>
+      <c r="M12" s="67">
+        <v>159893.47899999999</v>
+      </c>
+      <c r="N12" s="67">
+        <v>179507.815</v>
+      </c>
+      <c r="O12" s="67">
+        <v>185426.37599999999</v>
+      </c>
+      <c r="P12" s="67">
+        <v>187683.56</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>182431.45</v>
+      </c>
+      <c r="R12" s="67">
+        <v>176860.88800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="67">
+        <v>7011.915</v>
+      </c>
+      <c r="C13" s="67">
+        <v>7261.56</v>
+      </c>
+      <c r="D13" s="67">
+        <v>7324.2129999999997</v>
+      </c>
+      <c r="E13" s="67">
+        <v>7003.232</v>
+      </c>
+      <c r="F13" s="67">
+        <v>6989.9830000000002</v>
+      </c>
+      <c r="G13" s="67">
+        <v>6803.2849999999999</v>
+      </c>
+      <c r="H13" s="67">
+        <v>6405.7389999999996</v>
+      </c>
+      <c r="I13" s="67">
+        <v>6461.7020000000002</v>
+      </c>
+      <c r="J13" s="67">
+        <v>6632.5969999999998</v>
+      </c>
+      <c r="K13" s="67">
+        <v>6581.56</v>
+      </c>
+      <c r="L13" s="67">
+        <v>6521.5810000000001</v>
+      </c>
+      <c r="M13" s="67">
+        <v>6409.2420000000002</v>
+      </c>
+      <c r="N13" s="67">
+        <v>6198.9920000000002</v>
+      </c>
+      <c r="O13" s="67">
+        <v>6155.1869999999999</v>
+      </c>
+      <c r="P13" s="67">
+        <v>5947.8469999999998</v>
+      </c>
+      <c r="Q13" s="67">
+        <v>5973.835</v>
+      </c>
+      <c r="R13" s="67">
+        <v>6091.9880000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="67">
+        <v>46145.254000000001</v>
+      </c>
+      <c r="C14" s="67">
+        <v>49491.866999999998</v>
+      </c>
+      <c r="D14" s="67">
+        <v>49818.334999999999</v>
+      </c>
+      <c r="E14" s="67">
+        <v>49392.389000000003</v>
+      </c>
+      <c r="F14" s="67">
+        <v>50903.446000000004</v>
+      </c>
+      <c r="G14" s="67">
+        <v>48609.171000000002</v>
+      </c>
+      <c r="H14" s="67">
+        <v>47843.805</v>
+      </c>
+      <c r="I14" s="67">
+        <v>46896.248</v>
+      </c>
+      <c r="J14" s="67">
+        <v>47376.813999999998</v>
+      </c>
+      <c r="K14" s="67">
+        <v>47864.402000000002</v>
+      </c>
+      <c r="L14" s="67">
+        <v>47489.9</v>
+      </c>
+      <c r="M14" s="67">
+        <v>49620.673000000003</v>
+      </c>
+      <c r="N14" s="67">
+        <v>51214.18</v>
+      </c>
+      <c r="O14" s="67">
+        <v>52244.873</v>
+      </c>
+      <c r="P14" s="67">
+        <v>54396.156999999999</v>
+      </c>
+      <c r="Q14" s="67">
+        <v>56258.902000000002</v>
+      </c>
+      <c r="R14" s="67">
+        <v>56177.159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="67">
+        <v>186199.641</v>
+      </c>
+      <c r="C15" s="67">
+        <v>180710.34</v>
+      </c>
+      <c r="D15" s="67">
+        <v>189985.296</v>
+      </c>
+      <c r="E15" s="67">
+        <v>204967.701</v>
+      </c>
+      <c r="F15" s="67">
+        <v>204646.035</v>
+      </c>
+      <c r="G15" s="67">
+        <v>186508.13699999999</v>
+      </c>
+      <c r="H15" s="67">
+        <v>177014.891</v>
+      </c>
+      <c r="I15" s="67">
+        <v>191863.576</v>
+      </c>
+      <c r="J15" s="67">
+        <v>190922.894</v>
+      </c>
+      <c r="K15" s="67">
+        <v>201183.253</v>
+      </c>
+      <c r="L15" s="67">
+        <v>211593.08199999999</v>
+      </c>
+      <c r="M15" s="67">
+        <v>238602.489</v>
+      </c>
+      <c r="N15" s="67">
+        <v>249271.34400000001</v>
+      </c>
+      <c r="O15" s="67">
+        <v>248424.31700000001</v>
+      </c>
+      <c r="P15" s="67">
+        <v>252011.80100000001</v>
+      </c>
+      <c r="Q15" s="67">
+        <v>257487.448</v>
+      </c>
+      <c r="R15" s="67">
+        <v>262675.27899999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="67">
+        <v>275628.65299999999</v>
+      </c>
+      <c r="C16" s="67">
+        <v>274235.59899999999</v>
+      </c>
+      <c r="D16" s="67">
+        <v>271491.054</v>
+      </c>
+      <c r="E16" s="67">
+        <v>277274.70500000002</v>
+      </c>
+      <c r="F16" s="67">
+        <v>274208.18400000001</v>
+      </c>
+      <c r="G16" s="67">
+        <v>270912.63900000002</v>
+      </c>
+      <c r="H16" s="67">
+        <v>244936.212</v>
+      </c>
+      <c r="I16" s="67">
+        <v>266723.41600000003</v>
+      </c>
+      <c r="J16" s="67">
+        <v>282735.72700000001</v>
+      </c>
+      <c r="K16" s="67">
+        <v>293471.288</v>
+      </c>
+      <c r="L16" s="67">
+        <v>289070.06400000001</v>
+      </c>
+      <c r="M16" s="67">
+        <v>280893.26299999998</v>
+      </c>
+      <c r="N16" s="67">
+        <v>284085.424</v>
+      </c>
+      <c r="O16" s="67">
+        <v>279938.78399999999</v>
+      </c>
+      <c r="P16" s="67">
+        <v>294764.435</v>
+      </c>
+      <c r="Q16" s="67">
+        <v>301438.196</v>
+      </c>
+      <c r="R16" s="67">
+        <v>289004.07199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="67">
+        <v>39770.671999999999</v>
+      </c>
+      <c r="C17" s="67">
+        <v>42215.603000000003</v>
+      </c>
+      <c r="D17" s="67">
+        <v>43057.775999999998</v>
+      </c>
+      <c r="E17" s="67">
+        <v>42992.624000000003</v>
+      </c>
+      <c r="F17" s="67">
+        <v>45189.154000000002</v>
+      </c>
+      <c r="G17" s="67">
+        <v>43300.167000000001</v>
+      </c>
+      <c r="H17" s="67">
+        <v>35014.18</v>
+      </c>
+      <c r="I17" s="67">
+        <v>39399.949000000001</v>
+      </c>
+      <c r="J17" s="67">
+        <v>36309.785000000003</v>
+      </c>
+      <c r="K17" s="67">
+        <v>36948.487999999998</v>
+      </c>
+      <c r="L17" s="67">
+        <v>39146.911</v>
+      </c>
+      <c r="M17" s="67">
+        <v>40475.031000000003</v>
+      </c>
+      <c r="N17" s="67">
+        <v>36919.548000000003</v>
+      </c>
+      <c r="O17" s="67">
+        <v>37512.343999999997</v>
+      </c>
+      <c r="P17" s="67">
+        <v>37980.447</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>37144.089</v>
+      </c>
+      <c r="R17" s="67">
+        <v>38143.644999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="67">
+        <v>27150.242999999999</v>
+      </c>
+      <c r="C18" s="67">
+        <v>28300.754000000001</v>
+      </c>
+      <c r="D18" s="67">
+        <v>29015.974999999999</v>
+      </c>
+      <c r="E18" s="67">
+        <v>28420.088</v>
+      </c>
+      <c r="F18" s="67">
+        <v>30254.186000000002</v>
+      </c>
+      <c r="G18" s="67">
+        <v>27365.434000000001</v>
+      </c>
+      <c r="H18" s="67">
+        <v>25288.601999999999</v>
+      </c>
+      <c r="I18" s="67">
+        <v>28513.888999999999</v>
+      </c>
+      <c r="J18" s="67">
+        <v>31759.244999999999</v>
+      </c>
+      <c r="K18" s="67">
+        <v>33195.815000000002</v>
+      </c>
+      <c r="L18" s="67">
+        <v>34217.822999999997</v>
+      </c>
+      <c r="M18" s="67">
+        <v>34866.557999999997</v>
+      </c>
+      <c r="N18" s="67">
+        <v>35791.72</v>
+      </c>
+      <c r="O18" s="67">
+        <v>36254.232000000004</v>
+      </c>
+      <c r="P18" s="67">
+        <v>35731.675000000003</v>
+      </c>
+      <c r="Q18" s="67">
+        <v>34569.203000000001</v>
+      </c>
+      <c r="R18" s="67">
+        <v>32825.910000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="67">
+        <v>5375.826</v>
+      </c>
+      <c r="C19" s="67">
+        <v>5322.415</v>
+      </c>
+      <c r="D19" s="67">
+        <v>5638.7060000000001</v>
+      </c>
+      <c r="E19" s="67">
+        <v>5474.7179999999998</v>
+      </c>
+      <c r="F19" s="67">
+        <v>5514.78</v>
+      </c>
+      <c r="G19" s="67">
+        <v>5303.085</v>
+      </c>
+      <c r="H19" s="67">
+        <v>5098.0519999999997</v>
+      </c>
+      <c r="I19" s="67">
+        <v>5463.2269999999999</v>
+      </c>
+      <c r="J19" s="67">
+        <v>5571.5720000000001</v>
+      </c>
+      <c r="K19" s="67">
+        <v>5714.8419999999996</v>
+      </c>
+      <c r="L19" s="67">
+        <v>5742.8289999999997</v>
+      </c>
+      <c r="M19" s="67">
+        <v>5849.308</v>
+      </c>
+      <c r="N19" s="67">
+        <v>5906.5119999999997</v>
+      </c>
+      <c r="O19" s="67">
+        <v>5978.9610000000002</v>
+      </c>
+      <c r="P19" s="67">
+        <v>6031.5280000000002</v>
+      </c>
+      <c r="Q19" s="67">
+        <v>5966.2120000000004</v>
+      </c>
+      <c r="R19" s="67">
+        <v>6250.8289999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="67">
+        <v>213897.47399999999</v>
+      </c>
+      <c r="C20" s="67">
+        <v>227011.04</v>
+      </c>
+      <c r="D20" s="67">
+        <v>231928.73199999999</v>
+      </c>
+      <c r="E20" s="67">
+        <v>244763.78599999999</v>
+      </c>
+      <c r="F20" s="67">
+        <v>248569.198</v>
+      </c>
+      <c r="G20" s="67">
+        <v>248597.003</v>
+      </c>
+      <c r="H20" s="67">
+        <v>233722.85200000001</v>
+      </c>
+      <c r="I20" s="67">
+        <v>259654.20800000001</v>
+      </c>
+      <c r="J20" s="67">
+        <v>262628.94799999997</v>
+      </c>
+      <c r="K20" s="67">
+        <v>271034.23599999998</v>
+      </c>
+      <c r="L20" s="67">
+        <v>267103.24</v>
+      </c>
+      <c r="M20" s="67">
+        <v>272443.13400000002</v>
+      </c>
+      <c r="N20" s="67">
+        <v>282561.17599999998</v>
+      </c>
+      <c r="O20" s="67">
+        <v>288683.67700000003</v>
+      </c>
+      <c r="P20" s="67">
+        <v>305331.06800000003</v>
+      </c>
+      <c r="Q20" s="67">
+        <v>319554.641</v>
+      </c>
+      <c r="R20" s="67">
+        <v>327248.61900000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="67">
+        <v>29973.585999999999</v>
+      </c>
+      <c r="C21" s="67">
+        <v>29636.370999999999</v>
+      </c>
+      <c r="D21" s="67">
+        <v>30061.618999999999</v>
+      </c>
+      <c r="E21" s="67">
+        <v>30590.407999999999</v>
+      </c>
+      <c r="F21" s="67">
+        <v>30621.003000000001</v>
+      </c>
+      <c r="G21" s="67">
+        <v>30965.751</v>
+      </c>
+      <c r="H21" s="67">
+        <v>30807.143</v>
+      </c>
+      <c r="I21" s="67">
+        <v>27873.632000000001</v>
+      </c>
+      <c r="J21" s="67">
+        <v>29050.731</v>
+      </c>
+      <c r="K21" s="67">
+        <v>27087.19</v>
+      </c>
+      <c r="L21" s="67">
+        <v>29315.181</v>
+      </c>
+      <c r="M21" s="67">
+        <v>28769.445</v>
+      </c>
+      <c r="N21" s="67">
+        <v>28142.393</v>
+      </c>
+      <c r="O21" s="67">
+        <v>29580.792000000001</v>
+      </c>
+      <c r="P21" s="67">
+        <v>24800.255000000001</v>
+      </c>
+      <c r="Q21" s="67">
+        <v>26859.026000000002</v>
+      </c>
+      <c r="R21" s="67">
+        <v>24873.602999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="67">
+        <v>101734.11599999999</v>
+      </c>
+      <c r="C22" s="67">
+        <v>99009.002999999997</v>
+      </c>
+      <c r="D22" s="67">
+        <v>111491.43</v>
+      </c>
+      <c r="E22" s="67">
+        <v>114353.14599999999</v>
+      </c>
+      <c r="F22" s="67">
+        <v>122562.77899999999</v>
+      </c>
+      <c r="G22" s="67">
+        <v>121450.67200000001</v>
+      </c>
+      <c r="H22" s="67">
+        <v>100899.19899999999</v>
+      </c>
+      <c r="I22" s="67">
+        <v>114657.189</v>
+      </c>
+      <c r="J22" s="67">
+        <v>121885.42200000001</v>
+      </c>
+      <c r="K22" s="67">
+        <v>132741.93400000001</v>
+      </c>
+      <c r="L22" s="67">
+        <v>120107.315</v>
+      </c>
+      <c r="M22" s="67">
+        <v>119436.00199999999</v>
+      </c>
+      <c r="N22" s="67">
+        <v>122422.11199999999</v>
+      </c>
+      <c r="O22" s="67">
+        <v>123250.90300000001</v>
+      </c>
+      <c r="P22" s="67">
+        <v>153512.18400000001</v>
+      </c>
+      <c r="Q22" s="67">
+        <v>155289.26500000001</v>
+      </c>
+      <c r="R22" s="67">
+        <v>148606.19099999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="67">
+        <v>62146.241999999998</v>
+      </c>
+      <c r="C23" s="67">
+        <v>68159.986999999994</v>
+      </c>
+      <c r="D23" s="67">
+        <v>71624.035999999993</v>
+      </c>
+      <c r="E23" s="67">
+        <v>71591.709000000003</v>
+      </c>
+      <c r="F23" s="67">
+        <v>74562.876000000004</v>
+      </c>
+      <c r="G23" s="67">
+        <v>71960.236000000004</v>
+      </c>
+      <c r="H23" s="67">
+        <v>65000.703999999998</v>
+      </c>
+      <c r="I23" s="67">
+        <v>74194.58</v>
+      </c>
+      <c r="J23" s="67">
+        <v>80659.978000000003</v>
+      </c>
+      <c r="K23" s="67">
+        <v>82445.615000000005</v>
+      </c>
+      <c r="L23" s="67">
+        <v>81285.100000000006</v>
+      </c>
+      <c r="M23" s="67">
+        <v>90340.820999999996</v>
+      </c>
+      <c r="N23" s="67">
+        <v>97544.504000000001</v>
+      </c>
+      <c r="O23" s="67">
+        <v>107080.879</v>
+      </c>
+      <c r="P23" s="67">
+        <v>112366.40300000001</v>
+      </c>
+      <c r="Q23" s="67">
+        <v>115894.518</v>
+      </c>
+      <c r="R23" s="67">
+        <v>114799.75199999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="67">
+        <v>3993.09</v>
+      </c>
+      <c r="C24" s="67">
+        <v>4212.21</v>
+      </c>
+      <c r="D24" s="67">
+        <v>4287.0770000000002</v>
+      </c>
+      <c r="E24" s="67">
+        <v>4482.134</v>
+      </c>
+      <c r="F24" s="67">
+        <v>4508.674</v>
+      </c>
+      <c r="G24" s="67">
+        <v>4635.991</v>
+      </c>
+      <c r="H24" s="67">
+        <v>4354.4120000000003</v>
+      </c>
+      <c r="I24" s="67">
+        <v>4213.4530000000004</v>
+      </c>
+      <c r="J24" s="67">
+        <v>4102.5200000000004</v>
+      </c>
+      <c r="K24" s="67">
+        <v>3594.5230000000001</v>
+      </c>
+      <c r="L24" s="67">
+        <v>3494.6709999999998</v>
+      </c>
+      <c r="M24" s="67">
+        <v>3651.913</v>
+      </c>
+      <c r="N24" s="67">
+        <v>3804.4960000000001</v>
+      </c>
+      <c r="O24" s="67">
+        <v>4141.7070000000003</v>
+      </c>
+      <c r="P24" s="67">
+        <v>4623.6139999999996</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>5223.66</v>
+      </c>
+      <c r="R24" s="67">
+        <v>5328.5280000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="67">
+        <v>53876.317000000003</v>
+      </c>
+      <c r="C25" s="67">
+        <v>59357.446000000004</v>
+      </c>
+      <c r="D25" s="67">
+        <v>60272.464999999997</v>
+      </c>
+      <c r="E25" s="67">
+        <v>61731.142999999996</v>
+      </c>
+      <c r="F25" s="67">
+        <v>62623.741999999998</v>
+      </c>
+      <c r="G25" s="67">
+        <v>61744.239000000001</v>
+      </c>
+      <c r="H25" s="67">
+        <v>56536.95</v>
+      </c>
+      <c r="I25" s="67">
+        <v>64425.720999999998</v>
+      </c>
+      <c r="J25" s="67">
+        <v>70248.709000000003</v>
+      </c>
+      <c r="K25" s="67">
+        <v>76612.754000000001</v>
+      </c>
+      <c r="L25" s="67">
+        <v>77158.354999999996</v>
+      </c>
+      <c r="M25" s="67">
+        <v>82100.672000000006</v>
+      </c>
+      <c r="N25" s="67">
+        <v>84752.774999999994</v>
+      </c>
+      <c r="O25" s="67">
+        <v>91551.375</v>
+      </c>
+      <c r="P25" s="67">
+        <v>98168.414999999994</v>
+      </c>
+      <c r="Q25" s="67">
+        <v>103683.80899999999</v>
+      </c>
+      <c r="R25" s="67">
+        <v>106589.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="67">
+        <v>21850.257000000001</v>
+      </c>
+      <c r="C26" s="67">
+        <v>23024.358</v>
+      </c>
+      <c r="D26" s="67">
+        <v>24026.007000000001</v>
+      </c>
+      <c r="E26" s="67">
+        <v>23293.821</v>
+      </c>
+      <c r="F26" s="67">
+        <v>23760.364000000001</v>
+      </c>
+      <c r="G26" s="67">
+        <v>23769.191999999999</v>
+      </c>
+      <c r="H26" s="67">
+        <v>24170.133999999998</v>
+      </c>
+      <c r="I26" s="67">
+        <v>24470.775000000001</v>
+      </c>
+      <c r="J26" s="67">
+        <v>25346.054</v>
+      </c>
+      <c r="K26" s="67">
+        <v>26605.367999999999</v>
+      </c>
+      <c r="L26" s="67">
+        <v>25686.605</v>
+      </c>
+      <c r="M26" s="67">
+        <v>27003.33</v>
+      </c>
+      <c r="N26" s="67">
+        <v>28018.151999999998</v>
+      </c>
+      <c r="O26" s="67">
+        <v>28448.308000000001</v>
+      </c>
+      <c r="P26" s="67">
+        <v>29579.496999999999</v>
+      </c>
+      <c r="Q26" s="67">
+        <v>30339.29</v>
+      </c>
+      <c r="R26" s="67">
+        <v>32374.553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="67">
+        <v>87047.599000000002</v>
+      </c>
+      <c r="C27" s="67">
+        <v>91370.398000000001</v>
+      </c>
+      <c r="D27" s="67">
+        <v>98840.982000000004</v>
+      </c>
+      <c r="E27" s="67">
+        <v>118521.04300000001</v>
+      </c>
+      <c r="F27" s="67">
+        <v>111573.08900000001</v>
+      </c>
+      <c r="G27" s="67">
+        <v>115135.334</v>
+      </c>
+      <c r="H27" s="67">
+        <v>100621.58900000001</v>
+      </c>
+      <c r="I27" s="67">
+        <v>106852.807</v>
+      </c>
+      <c r="J27" s="67">
+        <v>117795.74800000001</v>
+      </c>
+      <c r="K27" s="67">
+        <v>120952.624</v>
+      </c>
+      <c r="L27" s="67">
+        <v>129359.18</v>
+      </c>
+      <c r="M27" s="67">
+        <v>136399.13099999999</v>
+      </c>
+      <c r="N27" s="67">
+        <v>142079.11199999999</v>
+      </c>
+      <c r="O27" s="67">
+        <v>139826.21100000001</v>
+      </c>
+      <c r="P27" s="67">
+        <v>130638.519</v>
+      </c>
+      <c r="Q27" s="67">
+        <v>125697.016</v>
+      </c>
+      <c r="R27" s="67">
+        <v>129830.745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="67">
+        <v>48384.339</v>
+      </c>
+      <c r="C28" s="67">
+        <v>51906.262000000002</v>
+      </c>
+      <c r="D28" s="67">
+        <v>50209.012999999999</v>
+      </c>
+      <c r="E28" s="67">
+        <v>49852.425999999999</v>
+      </c>
+      <c r="F28" s="67">
+        <v>46021.252999999997</v>
+      </c>
+      <c r="G28" s="67">
+        <v>44836.194000000003</v>
+      </c>
+      <c r="H28" s="67">
+        <v>44391.427000000003</v>
+      </c>
+      <c r="I28" s="67">
+        <v>47147.091999999997</v>
+      </c>
+      <c r="J28" s="67">
+        <v>47572.131999999998</v>
+      </c>
+      <c r="K28" s="67">
+        <v>47050.273000000001</v>
+      </c>
+      <c r="L28" s="67">
+        <v>49048.394999999997</v>
+      </c>
+      <c r="M28" s="67">
+        <v>48175.135999999999</v>
+      </c>
+      <c r="N28" s="67">
+        <v>43481.059000000001</v>
+      </c>
+      <c r="O28" s="67">
+        <v>42306.493000000002</v>
+      </c>
+      <c r="P28" s="67">
+        <v>41921.303</v>
+      </c>
+      <c r="Q28" s="67">
+        <v>37413.798999999999</v>
+      </c>
+      <c r="R28" s="67">
+        <v>36855.862000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="67">
+        <v>89010.975999999995</v>
+      </c>
+      <c r="C29" s="67">
+        <v>99790.623999999996</v>
+      </c>
+      <c r="D29" s="67">
+        <v>106729.746</v>
+      </c>
+      <c r="E29" s="67">
+        <v>110678.299</v>
+      </c>
+      <c r="F29" s="67">
+        <v>112914.689</v>
+      </c>
+      <c r="G29" s="67">
+        <v>124247.001</v>
+      </c>
+      <c r="H29" s="67">
+        <v>109552.042</v>
+      </c>
+      <c r="I29" s="67">
+        <v>105094.47500000001</v>
+      </c>
+      <c r="J29" s="67">
+        <v>102911.663</v>
+      </c>
+      <c r="K29" s="67">
+        <v>105217.542</v>
+      </c>
+      <c r="L29" s="67">
+        <v>105978.02899999999</v>
+      </c>
+      <c r="M29" s="67">
+        <v>105620.57799999999</v>
+      </c>
+      <c r="N29" s="67">
+        <v>111191.201</v>
+      </c>
+      <c r="O29" s="67">
+        <v>110365.59699999999</v>
+      </c>
+      <c r="P29" s="67">
+        <v>108832.27499999999</v>
+      </c>
+      <c r="Q29" s="67">
+        <v>107067.478</v>
+      </c>
+      <c r="R29" s="67">
+        <v>113530.56200000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="67">
+        <v>20735.060000000001</v>
+      </c>
+      <c r="C30" s="67">
+        <v>22485.573</v>
+      </c>
+      <c r="D30" s="67">
+        <v>18155.773000000001</v>
+      </c>
+      <c r="E30" s="67">
+        <v>19567.008999999998</v>
+      </c>
+      <c r="F30" s="67">
+        <v>19227.148000000001</v>
+      </c>
+      <c r="G30" s="67">
+        <v>18918.473999999998</v>
+      </c>
+      <c r="H30" s="67">
+        <v>17736.316999999999</v>
+      </c>
+      <c r="I30" s="67">
+        <v>19040.726999999999</v>
+      </c>
+      <c r="J30" s="67">
+        <v>20975.076000000001</v>
+      </c>
+      <c r="K30" s="67">
+        <v>21297.715</v>
+      </c>
+      <c r="L30" s="67">
+        <v>20999.224999999999</v>
+      </c>
+      <c r="M30" s="67">
+        <v>21612.401000000002</v>
+      </c>
+      <c r="N30" s="67">
+        <v>22268.856</v>
+      </c>
+      <c r="O30" s="67">
+        <v>23008.367999999999</v>
+      </c>
+      <c r="P30" s="67">
+        <v>23358.905999999999</v>
+      </c>
+      <c r="Q30" s="67">
+        <v>24303.357</v>
+      </c>
+      <c r="R30" s="67">
+        <v>24151.659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="67">
+        <v>117880.353</v>
+      </c>
+      <c r="C31" s="67">
+        <v>121463.897</v>
+      </c>
+      <c r="D31" s="67">
+        <v>127862.817</v>
+      </c>
+      <c r="E31" s="67">
+        <v>130978.07</v>
+      </c>
+      <c r="F31" s="67">
+        <v>131885.12599999999</v>
+      </c>
+      <c r="G31" s="67">
+        <v>133238.1</v>
+      </c>
+      <c r="H31" s="67">
+        <v>123874.192</v>
+      </c>
+      <c r="I31" s="67">
+        <v>125969.965</v>
+      </c>
+      <c r="J31" s="67">
+        <v>129398.557</v>
+      </c>
+      <c r="K31" s="67">
+        <v>130876.1</v>
+      </c>
+      <c r="L31" s="67">
+        <v>134729.68</v>
+      </c>
+      <c r="M31" s="67">
+        <v>135527.283</v>
+      </c>
+      <c r="N31" s="67">
+        <v>130251.698</v>
+      </c>
+      <c r="O31" s="67">
+        <v>130556.58500000001</v>
+      </c>
+      <c r="P31" s="67">
+        <v>122155.79</v>
+      </c>
+      <c r="Q31" s="67">
+        <v>123109.088</v>
+      </c>
+      <c r="R31" s="67">
+        <v>125333.28200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="67">
+        <v>19790.528999999999</v>
+      </c>
+      <c r="C32" s="67">
+        <v>21114.350999999999</v>
+      </c>
+      <c r="D32" s="67">
+        <v>21713.669000000002</v>
+      </c>
+      <c r="E32" s="67">
+        <v>23445.62</v>
+      </c>
+      <c r="F32" s="67">
+        <v>23941.271000000001</v>
+      </c>
+      <c r="G32" s="67">
+        <v>23783.075000000001</v>
+      </c>
+      <c r="H32" s="67">
+        <v>23887.557000000001</v>
+      </c>
+      <c r="I32" s="67">
+        <v>24770.82</v>
+      </c>
+      <c r="J32" s="67">
+        <v>25368.852999999999</v>
+      </c>
+      <c r="K32" s="67">
+        <v>25369.643</v>
+      </c>
+      <c r="L32" s="67">
+        <v>24939.311000000002</v>
+      </c>
+      <c r="M32" s="67">
+        <v>26326.953000000001</v>
+      </c>
+      <c r="N32" s="67">
+        <v>28308.602999999999</v>
+      </c>
+      <c r="O32" s="67">
+        <v>32441.375</v>
+      </c>
+      <c r="P32" s="67">
+        <v>35024.303</v>
+      </c>
+      <c r="Q32" s="67">
+        <v>35737.932000000001</v>
+      </c>
+      <c r="R32" s="67">
+        <v>37072.421999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="67">
+        <v>8571.0439999999999</v>
+      </c>
+      <c r="C33" s="67">
+        <v>9070.3619999999992</v>
+      </c>
+      <c r="D33" s="67">
+        <v>10550.431</v>
+      </c>
+      <c r="E33" s="67">
+        <v>11199.614</v>
+      </c>
+      <c r="F33" s="67">
+        <v>11844.182000000001</v>
+      </c>
+      <c r="G33" s="67">
+        <v>13301.136</v>
+      </c>
+      <c r="H33" s="67">
+        <v>13588.111000000001</v>
+      </c>
+      <c r="I33" s="67">
+        <v>15242.637000000001</v>
+      </c>
+      <c r="J33" s="67">
+        <v>14934.424000000001</v>
+      </c>
+      <c r="K33" s="67">
+        <v>14474.017</v>
+      </c>
+      <c r="L33" s="67">
+        <v>13633.380999999999</v>
+      </c>
+      <c r="M33" s="67">
+        <v>16381.576999999999</v>
+      </c>
+      <c r="N33" s="67">
+        <v>17253.703000000001</v>
+      </c>
+      <c r="O33" s="67">
+        <v>17502.157999999999</v>
+      </c>
+      <c r="P33" s="67">
+        <v>17186.163</v>
+      </c>
+      <c r="Q33" s="67">
+        <v>19366.451000000001</v>
+      </c>
+      <c r="R33" s="67">
+        <v>18576.363000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>